--- a/skoleni.xlsx
+++ b/skoleni.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vilis\vhbbs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9B62C7FB-3A48-44F7-BFA8-730F5EB00949}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6E8EFA-D981-4C64-BDF3-96C92B38FF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1425" yWindow="1425" windowWidth="21600" windowHeight="11295" xr2:uid="{CE1E152C-B861-4590-910C-0CCEF367CFE1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{CE1E152C-B861-4590-910C-0CCEF367CFE1}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="862" uniqueCount="862">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="861" uniqueCount="861">
   <si>
     <t>7.a</t>
   </si>
@@ -1993,9 +1993,6 @@
   </si>
   <si>
     <t>Riekstiņš Knuts</t>
-  </si>
-  <si>
-    <t>Rikters Dāgs (Ārzemēs)</t>
   </si>
   <si>
     <t>Savicka Megija</t>
@@ -2968,8 +2965,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2C97C2FF-1AD4-46B6-BB57-C81183D151C4}">
   <dimension ref="A1:AD33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Y37" sqref="Y37"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="AC1" sqref="AC1:AC1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3134,28 +3131,28 @@
         <v>635</v>
       </c>
       <c r="W2" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="X2" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="Y2" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="Z2" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="AA2" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="AB2" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="AC2" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="AD2" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
     </row>
     <row r="3" spans="1:30" x14ac:dyDescent="0.25">
@@ -3226,28 +3223,28 @@
         <v>636</v>
       </c>
       <c r="W3" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="X3" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="Y3" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="Z3" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AA3" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="AB3" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="AC3" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="AD3" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
     </row>
     <row r="4" spans="1:30" x14ac:dyDescent="0.25">
@@ -3318,28 +3315,28 @@
         <v>637</v>
       </c>
       <c r="W4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="X4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="Y4" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="Z4" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="AA4" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="AB4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AC4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="AD4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
     </row>
     <row r="5" spans="1:30" x14ac:dyDescent="0.25">
@@ -3410,28 +3407,28 @@
         <v>638</v>
       </c>
       <c r="W5" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="X5" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="Y5" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="Z5" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="AA5" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="AB5" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="AC5" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="AD5" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
     </row>
     <row r="6" spans="1:30" x14ac:dyDescent="0.25">
@@ -3502,28 +3499,28 @@
         <v>639</v>
       </c>
       <c r="W6" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="X6" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="Y6" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="Z6" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="AA6" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AB6" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="AC6" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AD6" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
     </row>
     <row r="7" spans="1:30" x14ac:dyDescent="0.25">
@@ -3594,28 +3591,28 @@
         <v>640</v>
       </c>
       <c r="W7" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="X7" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="Y7" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="Z7" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="AA7" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="AB7" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="AC7" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="AD7" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
     </row>
     <row r="8" spans="1:30" x14ac:dyDescent="0.25">
@@ -3686,28 +3683,28 @@
         <v>641</v>
       </c>
       <c r="W8" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="X8" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="Y8" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="Z8" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="AA8" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="AB8" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="AC8" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="AD8" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
     </row>
     <row r="9" spans="1:30" x14ac:dyDescent="0.25">
@@ -3778,28 +3775,28 @@
         <v>642</v>
       </c>
       <c r="W9" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="X9" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="Y9" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="Z9" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="AA9" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="AB9" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="AC9" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="AD9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
     </row>
     <row r="10" spans="1:30" x14ac:dyDescent="0.25">
@@ -3870,28 +3867,28 @@
         <v>643</v>
       </c>
       <c r="W10" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="X10" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="Y10" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="Z10" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="AA10" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="AB10" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AC10" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AD10" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
     </row>
     <row r="11" spans="1:30" x14ac:dyDescent="0.25">
@@ -3962,28 +3959,28 @@
         <v>644</v>
       </c>
       <c r="W11" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="X11" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="Y11" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="Z11" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="AA11" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AB11" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="AC11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AD11" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="12" spans="1:30" x14ac:dyDescent="0.25">
@@ -4054,28 +4051,28 @@
         <v>645</v>
       </c>
       <c r="W12" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="X12" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="Y12" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="Z12" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="AA12" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="AB12" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="AC12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="AD12" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="13" spans="1:30" x14ac:dyDescent="0.25">
@@ -4146,28 +4143,28 @@
         <v>646</v>
       </c>
       <c r="W13" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="X13" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="Y13" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="Z13" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AA13" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="AB13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="AC13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="AD13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="14" spans="1:30" x14ac:dyDescent="0.25">
@@ -4238,28 +4235,28 @@
         <v>647</v>
       </c>
       <c r="W14" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="X14" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="Y14" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="Z14" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="AA14" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="AB14" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="AC14" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="AD14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="15" spans="1:30" x14ac:dyDescent="0.25">
@@ -4330,28 +4327,28 @@
         <v>648</v>
       </c>
       <c r="W15" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="X15" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="Y15" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="Z15" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="AA15" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="AB15" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="AC15" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="AD15" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="16" spans="1:30" x14ac:dyDescent="0.25">
@@ -4422,28 +4419,28 @@
         <v>649</v>
       </c>
       <c r="W16" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="X16" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="Y16" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="Z16" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="AA16" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AB16" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="AC16" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="AD16" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
     </row>
     <row r="17" spans="1:30" x14ac:dyDescent="0.25">
@@ -4514,28 +4511,28 @@
         <v>650</v>
       </c>
       <c r="W17" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="X17" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="Y17" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="Z17" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="AA17" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="AB17" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="AC17" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="AD17" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
     </row>
     <row r="18" spans="1:30" x14ac:dyDescent="0.25">
@@ -4606,28 +4603,28 @@
         <v>651</v>
       </c>
       <c r="W18" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="X18" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="Y18" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="Z18" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="AA18" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="AB18" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="AC18" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="AD18" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
     </row>
     <row r="19" spans="1:30" x14ac:dyDescent="0.25">
@@ -4698,28 +4695,28 @@
         <v>652</v>
       </c>
       <c r="W19" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="X19" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="Y19" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="Z19" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="AA19" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="AB19" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="AC19" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="AD19" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
     </row>
     <row r="20" spans="1:30" x14ac:dyDescent="0.25">
@@ -4790,28 +4787,28 @@
         <v>653</v>
       </c>
       <c r="W20" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="X20" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="Y20" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="Z20" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="AA20" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="AB20" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="AC20" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="AD20" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
     </row>
     <row r="21" spans="1:30" x14ac:dyDescent="0.25">
@@ -4882,28 +4879,28 @@
         <v>654</v>
       </c>
       <c r="W21" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="X21" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="Y21" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="Z21" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AA21" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="AB21" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="AC21" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="AD21" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
     </row>
     <row r="22" spans="1:30" x14ac:dyDescent="0.25">
@@ -4974,22 +4971,22 @@
         <v>655</v>
       </c>
       <c r="X22" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="Y22" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="AA22" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AB22" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="AC22" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="AD22" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
     </row>
     <row r="23" spans="1:30" x14ac:dyDescent="0.25">
@@ -5060,22 +5057,22 @@
         <v>656</v>
       </c>
       <c r="X23" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="Y23" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="AA23" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="AB23" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="AC23" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="AD23" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
     </row>
     <row r="24" spans="1:30" x14ac:dyDescent="0.25">
@@ -5146,22 +5143,22 @@
         <v>657</v>
       </c>
       <c r="X24" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="Y24" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AA24" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="AB24" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="AC24" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="AD24" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
     </row>
     <row r="25" spans="1:30" x14ac:dyDescent="0.25">
@@ -5232,22 +5229,22 @@
         <v>658</v>
       </c>
       <c r="X25" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="Y25" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="AA25" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="AB25" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="AC25" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="AD25" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
     </row>
     <row r="26" spans="1:30" x14ac:dyDescent="0.25">
@@ -5315,16 +5312,16 @@
         <v>659</v>
       </c>
       <c r="X26" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="Y26" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AC26" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="AD26" t="s">
-        <v>860</v>
+        <v>859</v>
       </c>
     </row>
     <row r="27" spans="1:30" x14ac:dyDescent="0.25">
@@ -5389,13 +5386,13 @@
         <v>660</v>
       </c>
       <c r="X27" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="Y27" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="AD27" t="s">
-        <v>861</v>
+        <v>860</v>
       </c>
     </row>
     <row r="28" spans="1:30" x14ac:dyDescent="0.25">
@@ -5454,7 +5451,7 @@
         <v>661</v>
       </c>
       <c r="X28" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
     </row>
     <row r="29" spans="1:30" x14ac:dyDescent="0.25">
@@ -5494,9 +5491,15 @@
       <c r="M29" t="s">
         <v>402</v>
       </c>
+      <c r="N29" t="s">
+        <v>432</v>
+      </c>
       <c r="O29" t="s">
         <v>462</v>
       </c>
+      <c r="P29" t="s">
+        <v>491</v>
+      </c>
       <c r="Q29" t="s">
         <v>521</v>
       </c>
@@ -5510,7 +5513,7 @@
         <v>662</v>
       </c>
       <c r="X29" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
     </row>
     <row r="30" spans="1:30" x14ac:dyDescent="0.25">
@@ -5536,13 +5539,13 @@
         <v>403</v>
       </c>
       <c r="N30" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O30" t="s">
         <v>463</v>
       </c>
       <c r="P30" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="Q30" t="s">
         <v>522</v>
@@ -5557,7 +5560,7 @@
         <v>663</v>
       </c>
       <c r="X30" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
     </row>
     <row r="31" spans="1:30" x14ac:dyDescent="0.25">
@@ -5570,14 +5573,17 @@
       <c r="H31" t="s">
         <v>262</v>
       </c>
+      <c r="I31" t="s">
+        <v>291</v>
+      </c>
       <c r="M31" t="s">
         <v>404</v>
       </c>
       <c r="N31" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="P31" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="Q31" t="s">
         <v>523</v>
@@ -5592,33 +5598,21 @@
         <v>664</v>
       </c>
       <c r="X31" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
     </row>
     <row r="32" spans="1:30" x14ac:dyDescent="0.25">
       <c r="E32" t="s">
         <v>174</v>
       </c>
-      <c r="I32" t="s">
-        <v>291</v>
-      </c>
-      <c r="N32" t="s">
-        <v>434</v>
-      </c>
-      <c r="P32" t="s">
-        <v>493</v>
-      </c>
       <c r="Q32" t="s">
         <v>524</v>
       </c>
       <c r="R32" t="s">
         <v>555</v>
       </c>
-      <c r="V32" t="s">
-        <v>665</v>
-      </c>
       <c r="X32" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="33" spans="5:5" x14ac:dyDescent="0.25">
